--- a/fr/fr-date.xlsx
+++ b/fr/fr-date.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940" activeTab="3"/>
+    <workbookView windowWidth="29080" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="day" sheetId="1" r:id="rId1"/>
@@ -614,32 +614,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -766,7 +746,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,34 +758,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,21 +870,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1441,8 +1415,8 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1451,11 +1425,11 @@
     <col min="2" max="2" width="11.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1499,11 +1473,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="17.55" spans="1:2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1519,7 +1493,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="C5" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1527,17 +1501,17 @@
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1611,17 +1585,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" ht="17.55" spans="1:4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1637,7 +1611,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="B8" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1646,11 +1620,11 @@
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1702,11 +1676,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" ht="17.55" spans="1:2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1721,28 +1695,30 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.38461538461539" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="10.6923076923077" customWidth="1"/>
+    <col min="1" max="1" width="8.38461538461539" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.23076923076923" style="1"/>
+    <col min="4" max="4" width="10.6923076923077" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1826,15 +1802,15 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" ht="17.55" spans="1:4">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fr/fr-date.xlsx
+++ b/fr/fr-date.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940"/>
+    <workbookView windowWidth="29040" windowHeight="13940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="day" sheetId="1" r:id="rId1"/>
@@ -870,12 +870,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1415,7 +1412,7 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
@@ -1426,58 +1423,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1502,100 +1499,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1621,66 +1618,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1695,8 +1692,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1709,108 +1706,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fr/fr-date.xlsx
+++ b/fr/fr-date.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="13940" activeTab="3"/>
+    <workbookView windowWidth="29080" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="day" sheetId="1" r:id="rId1"/>
@@ -32,229 +32,229 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
+    <t>French</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>French</t>
+    <t>matin</t>
   </si>
   <si>
     <t>morning</t>
   </si>
   <si>
-    <t>matin</t>
+    <t>après-midi</t>
   </si>
   <si>
     <t>afternoon</t>
   </si>
   <si>
-    <t>après-midi</t>
+    <t>soir</t>
   </si>
   <si>
     <t>evening</t>
   </si>
   <si>
-    <t>soir</t>
+    <t>nuit</t>
   </si>
   <si>
     <t>night</t>
   </si>
   <si>
-    <t>nuit</t>
+    <t>aube</t>
   </si>
   <si>
     <t>dawn</t>
   </si>
   <si>
-    <t>aube</t>
+    <t>crépuscule</t>
   </si>
   <si>
     <t>dusk</t>
   </si>
   <si>
-    <t>crépuscule</t>
+    <t>Janvier</t>
   </si>
   <si>
     <t>January</t>
   </si>
   <si>
-    <t>Janvier</t>
+    <t>Juillet</t>
   </si>
   <si>
     <t>July</t>
   </si>
   <si>
-    <t>Juillet</t>
+    <t>Février</t>
   </si>
   <si>
     <t>February</t>
   </si>
   <si>
-    <t>Février</t>
+    <t>Août</t>
   </si>
   <si>
     <t>August</t>
   </si>
   <si>
-    <t>Août</t>
+    <t>Mars</t>
   </si>
   <si>
     <t>March</t>
   </si>
   <si>
-    <t>Mars</t>
+    <t>Septembre</t>
   </si>
   <si>
     <t>September</t>
   </si>
   <si>
-    <t>Septembre</t>
+    <t>Avril</t>
   </si>
   <si>
     <t>April</t>
   </si>
   <si>
-    <t>Avril</t>
+    <t>Octobre</t>
   </si>
   <si>
     <t>October</t>
   </si>
   <si>
-    <t>Octobre</t>
+    <t>Mai</t>
   </si>
   <si>
     <t>May</t>
   </si>
   <si>
-    <t>Mai</t>
+    <t>Novembre</t>
   </si>
   <si>
     <t>November</t>
   </si>
   <si>
-    <t>Novembre</t>
+    <t>Juin</t>
   </si>
   <si>
     <t>June</t>
   </si>
   <si>
-    <t>Juin</t>
+    <t>Décembre</t>
   </si>
   <si>
     <t>December</t>
   </si>
   <si>
-    <t>Décembre</t>
+    <t>Lundi</t>
   </si>
   <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>Lundi</t>
+    <t>Mardi</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t>Mardi</t>
+    <t>Mercredi</t>
   </si>
   <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>Mercredi</t>
+    <t>Jeudi</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>Jeudi</t>
+    <t>Vendredi</t>
   </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>Vendredi</t>
+    <t>Samedi</t>
   </si>
   <si>
     <t>Saturday</t>
   </si>
   <si>
-    <t>Samedi</t>
+    <t>Dimanche</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>Dimanche</t>
+    <t>an (année)</t>
   </si>
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>an (année)</t>
+    <t>saison</t>
   </si>
   <si>
     <t>season</t>
   </si>
   <si>
-    <t>saison</t>
+    <t>mois</t>
   </si>
   <si>
     <t>month</t>
   </si>
   <si>
-    <t>mois</t>
+    <t>printemps</t>
   </si>
   <si>
     <t>spring</t>
   </si>
   <si>
-    <t>printemps</t>
+    <t>semaine</t>
   </si>
   <si>
     <t>week</t>
   </si>
   <si>
-    <t>semaine</t>
+    <t>été</t>
   </si>
   <si>
     <t>summer</t>
   </si>
   <si>
-    <t>été</t>
+    <t>jour</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>jour</t>
+    <t>automne</t>
   </si>
   <si>
     <t>autumn</t>
   </si>
   <si>
-    <t>automne</t>
+    <t>heure</t>
   </si>
   <si>
     <t>hour</t>
   </si>
   <si>
-    <t>heure</t>
+    <t>hiver</t>
   </si>
   <si>
     <t>winter</t>
   </si>
   <si>
-    <t>hiver</t>
-  </si>
-  <si>
     <t>minute</t>
   </si>
   <si>
+    <t>seconde</t>
+  </si>
+  <si>
     <t>second</t>
-  </si>
-  <si>
-    <t>seconde</t>
   </si>
 </sst>
 </file>
@@ -1412,14 +1412,14 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:B7"/>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
-    <col min="2" max="2" width="11.1538461538462" customWidth="1"/>
+    <col min="1" max="1" width="11.1538461538462" customWidth="1"/>
+    <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1489,13 +1489,13 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:D7"/>
+    <sheetView zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1607,14 +1607,14 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:B8"/>
+    <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.6923076923077" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11.6923076923077" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1692,17 +1692,16 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.38461538461539" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.23076923076923" style="1"/>
-    <col min="4" max="4" width="10.6923076923077" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.23076923076923" style="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.38461538461539" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6923076923077" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
